--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1874608.478811563</v>
+        <v>1967154.625467511</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324958</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5692488.934978207</v>
+        <v>6018639.182921789</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>226.6328787749282</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>92.40915305714262</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,19 +870,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9444328172925</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>213.1775137436936</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>327.2879775827834</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>133.0310825021859</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.2134662769374</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>126.4822118710377</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>310.6883293919656</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494614</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>78.50202290885689</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>292.1688913872678</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170499</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2333,7 +2335,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>75.86622810093029</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3095,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>350.6675387923975</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>171.5692119575965</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,10 +4194,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>187.5234134555188</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.988348109748</v>
+        <v>952.4132834144444</v>
       </c>
       <c r="C2" t="n">
-        <v>324.8862793335753</v>
+        <v>523.8316091517128</v>
       </c>
       <c r="D2" t="n">
-        <v>293.0168985484239</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2825577471231</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
         <v>34.36045797446834</v>
@@ -4331,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>789.5336382545983</v>
+        <v>1382.958573559295</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.2475145542517</v>
+        <v>1378.712853899352</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4388,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4413,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1644.724363562988</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1644.724363562988</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.183430080417</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.5057921365585</v>
+        <v>973.0996549038641</v>
       </c>
       <c r="C4" t="n">
-        <v>262.5057921365585</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4489,16 +4491,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="X4" t="n">
-        <v>489.9254628224502</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="Y4" t="n">
-        <v>262.5057921365585</v>
+        <v>1164.918273622851</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1382.086414623702</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>943.9439418071256</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>508.0341569815701</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>674.533170634256</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1957.862875299184</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1942.760815918899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1808.38598510861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.8041211489747</v>
+        <v>989.5883728917329</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8041211489747</v>
+        <v>817.0266613749578</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8041211489747</v>
+        <v>651.1486685764805</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>481.3906648272178</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>304.6836107889741</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>266.2978593068801</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>684.5077410748412</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>2213.200329506477</v>
       </c>
       <c r="V7" t="n">
-        <v>1516.524240083786</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.497835670078</v>
+        <v>1654.218416963199</v>
       </c>
       <c r="X7" t="n">
-        <v>999.1060810034901</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>771.6864103175983</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.9560900011804</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>437.0247332457074</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1277.130531135514</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>978.5013801460308</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.2556604860882</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>778.554892512724</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>778.554892512724</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>778.554892512724</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>778.554892512724</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>778.554892512724</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.603617826933</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.603617826933</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2148.297048386134</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1710.154575569557</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.244790744002</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035996</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035996</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.880660581044</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3806.880660581044</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3402.025205992078</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2982.882742571388</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2574.596618871042</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162089</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162089</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>378.9152695791561</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>378.9152695791561</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>378.9152695791561</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>378.9152695791561</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>378.9152695791561</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2287.945556116525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2287.945556116525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2287.945556116525</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3230.148519610334</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3230.148519610334</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3586.813433454083</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3224.196483387909</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2929.076391077538</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2929.076391077538</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>613.0697391124583</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>447.191746313981</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>277.4337425647182</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>100.7266885264744</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5543,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,31 +5752,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5838,19 +5840,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5987,52 +5989,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2642.287896536276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2396.408450114731</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6214,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3219.389950875955</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>4199.569617446262</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5027.879492279658</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.616358467827</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6540,28 +6542,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.552685307369</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6701,46 +6703,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>211.240503094076</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
         <v>2955.199618136696</v>
@@ -6783,16 +6785,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.803889081883</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,31 +6937,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740237</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,40 +7174,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2213.229876662986</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1775.08740384641</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2262.917935035995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3402.025205992077</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3047.815570848241</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2639.529447147894</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>400.6959381778332</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1952.757366121884</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1514.614893305307</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1078.705108479752</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1078.705108479752</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>650.8376788889595</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>249.4398475122234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3185.041407831886</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2780.18595324292</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.043489822231</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1952.757366121884</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>680.001633102282</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1622.20459659609</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.20459659609</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.195773823502</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067273</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>816.75606950825</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2009.243407243978</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1819.825817894969</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1574.434063228381</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1347.01439254249</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,25 +8063,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>52.98895607821123</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>224.9470977440209</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8146,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987002</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8456,25 +8458,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113938</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>411.6950264824786</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,7 +9895,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10127,7 +10129,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>110.0804674982791</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,13 +10831,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10901,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.03656536949893052</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>118.392906878933</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11382,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>255.8000219838295</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>350.9349744844309</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>108.6380086558092</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>55.07653710780799</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>81.78272691405301</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>64.28349999408493</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>114.6696410536194</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>81.78272691405255</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485246.5650770452</v>
+        <v>500042.6079041997</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>485246.5650770452</v>
+        <v>502706.6679577795</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427499.0749719323</v>
+        <v>528729.619171286</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427499.0749719323</v>
+        <v>528729.619171286</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528729.6191712859</v>
+        <v>528729.619171286</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528729.6191712859</v>
+        <v>528729.619171286</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427499.0749719322</v>
+        <v>528729.619171286</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427499.0749719322</v>
+        <v>528729.619171286</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>394036.5501892231</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>394036.5501892231</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="H2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>487343.2653270506</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="K2" t="n">
-        <v>487343.2653270508</v>
-      </c>
       <c r="L2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="N2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="O2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="P2" t="n">
         <v>487343.2653270506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>487343.2653270508</v>
-      </c>
-      <c r="O2" t="n">
-        <v>394036.550189223</v>
-      </c>
-      <c r="P2" t="n">
-        <v>394036.550189223</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998279</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877245</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622331</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,34 +26420,34 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917066</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="G4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="H4" t="n">
-        <v>94878.44464875291</v>
-      </c>
       <c r="I4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875282</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
@@ -26454,10 +26456,10 @@
         <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>76713.02278410409</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
-        <v>76713.02278410409</v>
+        <v>94878.44464875291</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,22 +26496,22 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82227.06266447756</v>
+        <v>82227.0626644775</v>
       </c>
       <c r="C6" t="n">
-        <v>224418.3633241873</v>
+        <v>177673.6564039025</v>
       </c>
       <c r="D6" t="n">
-        <v>224418.3633241874</v>
+        <v>236306.6155204442</v>
       </c>
       <c r="E6" t="n">
-        <v>101981.6464421831</v>
+        <v>132391.4728514556</v>
       </c>
       <c r="F6" t="n">
-        <v>259458.9413642871</v>
+        <v>314746.5820725054</v>
       </c>
       <c r="G6" t="n">
-        <v>225246.7734661363</v>
+        <v>314746.5820725053</v>
       </c>
       <c r="H6" t="n">
-        <v>314746.5820725053</v>
+        <v>314746.5820725054</v>
       </c>
       <c r="I6" t="n">
         <v>314746.5820725053</v>
@@ -26546,22 +26548,22 @@
         <v>203732.1167275151</v>
       </c>
       <c r="K6" t="n">
-        <v>314746.5820725054</v>
+        <v>261700.7274337329</v>
       </c>
       <c r="L6" t="n">
-        <v>314746.5820725056</v>
+        <v>305354.280345883</v>
       </c>
       <c r="M6" t="n">
-        <v>183310.3349150857</v>
+        <v>162546.4111345176</v>
       </c>
       <c r="N6" t="n">
-        <v>314746.5820725054</v>
+        <v>314746.5820725053</v>
       </c>
       <c r="O6" t="n">
-        <v>259458.941364287</v>
+        <v>314746.5820725053</v>
       </c>
       <c r="P6" t="n">
-        <v>259458.941364287</v>
+        <v>314746.5820725053</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939346</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939346</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939346</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>196.9558765199561</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>322.5418857293398</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.4762191400368</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>29.76032337622809</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>106.4730705056276</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>271.1721799611572</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.68696625485984</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>149.166458868388</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>104.2627093945168</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.5633111792702</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -29053,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,25 +34783,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>52.98895607821123</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>224.9470977440209</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34866,10 +34868,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,16 +35017,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987002</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113938</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>411.6950264824786</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36847,7 +36849,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>110.0804674982791</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.03656536949893052</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>118.392906878933</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>255.8000219838295</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967154.625467511</v>
+        <v>1966629.443098479</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.072591686</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>317.8227870144768</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>92.40915305714262</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>122.9444328172925</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>20.98493461294465</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>317.690496605991</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>133.0310825021859</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>34.06158462964805</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>126.4822118710377</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59474737021493</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>218.7401522186046</v>
       </c>
     </row>
     <row r="9">
@@ -1302,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>81.01098805494614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>176.9484966573165</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247631</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1897,10 +1897,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>109.1426757626845</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>31.24391673888106</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>222.6988144892033</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>216.8805964716351</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.4132834144444</v>
+        <v>442.6402219259112</v>
       </c>
       <c r="C2" t="n">
-        <v>523.8316091517128</v>
+        <v>408.5381531497385</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1382.958573559295</v>
+        <v>1277.225916111166</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.712853899352</v>
+        <v>868.939792410819</v>
       </c>
     </row>
     <row r="3">
@@ -4388,19 +4388,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.0996549038641</v>
+        <v>807.508379929692</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
         <v>122.603617826933</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1392.337944308743</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1392.337944308743</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1392.337944308743</v>
+        <v>1516.745157728975</v>
       </c>
       <c r="W4" t="n">
-        <v>1392.337944308743</v>
+        <v>1244.718753315267</v>
       </c>
       <c r="X4" t="n">
-        <v>1392.337944308743</v>
+        <v>999.3269986486791</v>
       </c>
       <c r="Y4" t="n">
-        <v>1164.918273622851</v>
+        <v>999.3269986486791</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1382.086414623702</v>
+        <v>863.0357172789458</v>
       </c>
       <c r="C5" t="n">
-        <v>943.9439418071256</v>
+        <v>424.8932444623691</v>
       </c>
       <c r="D5" t="n">
-        <v>508.0341569815701</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>74.25941213986529</v>
+        <v>74.25941213986533</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K5" t="n">
-        <v>674.533170634256</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717424</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717424</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717424</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657691</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.90022853073</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847747</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.677925847747</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="W5" t="n">
-        <v>1957.862875299184</v>
+        <v>2116.763874884889</v>
       </c>
       <c r="X5" t="n">
-        <v>1942.760815918899</v>
+        <v>1697.6214114642</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.38598510861</v>
+        <v>1289.335287763854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993469</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>989.5883728917329</v>
+        <v>593.0357356940408</v>
       </c>
       <c r="C7" t="n">
-        <v>817.0266613749578</v>
+        <v>420.4740241772657</v>
       </c>
       <c r="D7" t="n">
-        <v>651.1486685764805</v>
+        <v>254.5960313787884</v>
       </c>
       <c r="E7" t="n">
-        <v>481.3906648272178</v>
+        <v>84.83802762952567</v>
       </c>
       <c r="F7" t="n">
-        <v>304.6836107889741</v>
+        <v>84.83802762952567</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0923358148017</v>
+        <v>84.83802762952567</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>84.83802762952567</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068801</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748412</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255754</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413399</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.91966063918</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179226</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>2340.960139477223</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>2213.200329506477</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1926.244821376908</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1654.218416963199</v>
+        <v>1257.665779765507</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.826662296612</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>1181.40699161072</v>
+        <v>784.854354413028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4804,16 +4804,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362198</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -5004,10 +5004,10 @@
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1324.277995859497</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>981.979666847081</v>
       </c>
     </row>
     <row r="11">
@@ -5050,40 +5050,40 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
         <v>2955.199618136696</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
         <v>2090.757574835212</v>
@@ -5290,40 +5290,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5545,7 +5545,7 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5591,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5655,19 +5655,19 @@
         <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>507.5300178439736</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
+        <v>3569.079287993934</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4397.38916282733</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4943.887948785925</v>
+      </c>
+      <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="P20" t="n">
-        <v>5113.04201353898</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5113.04201353898</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
         <v>287.8657185439749</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5998,22 +5998,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N23" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O23" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P23" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6214,37 +6214,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6463,52 +6463,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>211.240503094076</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1286.300469346935</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2443.348304557486</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6943,46 +6943,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>133.8203521282352</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7183,16 +7183,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7219,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M39" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1246.54233171619</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7417,10 +7417,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7456,7 +7456,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.552685307369</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.552685307369</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.552685307369</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.552685307369</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.552685307369</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>949.5782250957668</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>777.0165135789917</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>611.1385207805145</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>441.3805170312517</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>264.6734629930079</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2173.190181710511</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V43" t="n">
-        <v>1886.234673580942</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W43" t="n">
-        <v>1614.208269167233</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.816514500646</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.396843814754</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4570950335029</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>512.4570950335038</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684634</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741913</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987002</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9646,19 +9646,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,19 +9883,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>110.0804674982791</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10831,19 +10831,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>395.0015281256929</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03656536949893052</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23436,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.07653710780799</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>52.94985625022238</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>52.42554389793631</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="E2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="F2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="J2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="J2" t="n">
-        <v>487343.2653270506</v>
-      </c>
       <c r="K2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="L2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="N2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="O2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501615</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998279</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877245</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622331</v>
+        <v>9392.301726622112</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,37 +26420,37 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917066</v>
+        <v>179718.6327917065</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="F4" t="n">
         <v>94878.44464875291</v>
       </c>
-      <c r="F4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="G4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="N4" t="n">
         <v>94878.44464875289</v>
@@ -26459,7 +26459,7 @@
         <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26496,13 +26496,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82227.0626644775</v>
+        <v>82227.06266447745</v>
       </c>
       <c r="C6" t="n">
-        <v>177673.6564039025</v>
+        <v>177673.6564039021</v>
       </c>
       <c r="D6" t="n">
-        <v>236306.6155204442</v>
+        <v>236306.6155204443</v>
       </c>
       <c r="E6" t="n">
-        <v>132391.4728514556</v>
+        <v>132368.2485120729</v>
       </c>
       <c r="F6" t="n">
-        <v>314746.5820725054</v>
+        <v>314723.3577331227</v>
       </c>
       <c r="G6" t="n">
-        <v>314746.5820725053</v>
+        <v>314723.3577331227</v>
       </c>
       <c r="H6" t="n">
-        <v>314746.5820725054</v>
+        <v>314723.3577331227</v>
       </c>
       <c r="I6" t="n">
-        <v>314746.5820725053</v>
+        <v>314723.3577331227</v>
       </c>
       <c r="J6" t="n">
-        <v>203732.1167275151</v>
+        <v>203708.8923881325</v>
       </c>
       <c r="K6" t="n">
-        <v>261700.7274337329</v>
+        <v>261677.50309435</v>
       </c>
       <c r="L6" t="n">
-        <v>305354.280345883</v>
+        <v>305331.0560065005</v>
       </c>
       <c r="M6" t="n">
-        <v>162546.4111345176</v>
+        <v>162523.1867951349</v>
       </c>
       <c r="N6" t="n">
-        <v>314746.5820725053</v>
+        <v>314723.3577331227</v>
       </c>
       <c r="O6" t="n">
-        <v>314746.5820725053</v>
+        <v>314723.3577331227</v>
       </c>
       <c r="P6" t="n">
-        <v>314746.5820725053</v>
+        <v>314723.3577331227</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939346</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939346</v>
+        <v>37.1103742393926</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939346</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>113.7278999628231</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27444,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>322.5418857293398</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>120.4762191400368</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>263.1010184353292</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>113.8601903713089</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>271.1721799611572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53.71176510342336</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>149.166458868388</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.8422500230728</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27909,10 +27909,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>185.4631102447385</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>161.9268490649755</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>48.1969773217163</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.232097024679733e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4570950335029</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>512.4570950335038</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35014,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684634</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741913</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987002</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35418,10 +35418,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35658,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36129,22 +36129,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36366,19 +36366,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>110.0804674982791</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37083,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37551,19 +37551,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>395.0015281256929</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03656536949893052</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
